--- a/accounts.xlsx
+++ b/accounts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_61f\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Debian\home\isen\PROJET\Linux_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{291ABAB5-CFFF-4815-8147-C80846746030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4197AF-A458-414E-A143-2BD033FD891A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
   <si>
     <t>Name</t>
   </si>
@@ -243,13 +243,25 @@
   </si>
   <si>
     <t xml:space="preserve">,Zs9Eip[MP </t>
+  </si>
+  <si>
+    <t>Maxence</t>
+  </si>
+  <si>
+    <t>Laurent</t>
+  </si>
+  <si>
+    <t>maxence.laurent@isen-ouest.yncrea.fr</t>
+  </si>
+  <si>
+    <t>AZERTY02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,6 +392,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -682,7 +702,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -725,11 +745,13 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -757,11 +779,12 @@
     <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Commentaire" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Lien hypertexte" xfId="42" builtinId="8"/>
     <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
@@ -787,7 +810,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1083,13 +1106,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1103,7 +1128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1117,7 +1142,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1131,7 +1156,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1145,7 +1170,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1159,7 +1184,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1173,7 +1198,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1187,7 +1212,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1201,7 +1226,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1215,7 +1240,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -1229,7 +1254,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -1243,7 +1268,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -1257,7 +1282,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -1271,7 +1296,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -1285,7 +1310,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -1299,7 +1324,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -1313,7 +1338,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>62</v>
       </c>
@@ -1327,7 +1352,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>66</v>
       </c>
@@ -1341,7 +1366,24 @@
         <v>69</v>
       </c>
     </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C19" r:id="rId1" xr:uid="{80473739-EB6F-4AE6-9926-2B66E771EB65}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>